--- a/biovolume_method.xlsx
+++ b/biovolume_method.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\R_packages\ecomaestro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC26F7-8489-4B7F-B532-01E9285DECD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58677DEF-29B9-4263-A45C-34E577771A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{C19946F7-BC32-4ACF-B65E-5A4C5E50E524}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="biovolume_method" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">biovolume_method!$A$1:$E$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">biovolume_method!$A$1:$E$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>Taxon</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although all bryozoans are colonial, solitary specimen can occur due to sample processing </t>
+  </si>
+  <si>
+    <t>Scleractinia</t>
   </si>
 </sst>
 </file>
@@ -572,11 +578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A16F556-E119-4982-881B-A688E7832F41}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -739,19 +745,24 @@
         <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -760,7 +771,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
@@ -771,7 +782,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -782,7 +793,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
@@ -793,7 +804,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
@@ -804,11 +815,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
@@ -817,9 +826,11 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -828,7 +839,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -839,31 +850,31 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>42</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
@@ -874,7 +885,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
@@ -885,7 +896,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
@@ -896,7 +907,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -907,31 +918,29 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.53</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -944,22 +953,20 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>0.53</v>
+      </c>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
@@ -974,7 +981,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
@@ -983,71 +990,73 @@
       <c r="D33" s="2">
         <v>0.4</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="2">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="2">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="2">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="2">
-        <v>0.39900000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.39900000000000002</v>
+      </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5">
@@ -1055,27 +1064,27 @@
         <v>31</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.38500000000000001</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.38500000000000001</v>
+      </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5">
@@ -1083,98 +1092,119 @@
         <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="2">
         <v>0.38500000000000001</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E44" s="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>0.53</v>
+      </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.61399999999999999</v>
+        <v>33</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E45" xr:uid="{692F673C-CC0A-460A-BBB0-D2FE6EE5CA26}"/>
-  <sortState ref="A1:F45">
+  <autoFilter ref="A1:E46" xr:uid="{692F673C-CC0A-460A-BBB0-D2FE6EE5CA26}"/>
+  <sortState ref="A1:F46">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/biovolume_method.xlsx
+++ b/biovolume_method.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\R_packages\ecomaestro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58677DEF-29B9-4263-A45C-34E577771A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A402805-BDFA-494B-B80B-7AAACD9374B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{C19946F7-BC32-4ACF-B65E-5A4C5E50E524}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="biovolume_method" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">biovolume_method!$A$1:$E$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">biovolume_method!$A$1:$E$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>Taxon</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Harpacticoida</t>
   </si>
   <si>
-    <t>Echiura</t>
-  </si>
-  <si>
     <t>Cylinder</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Scaphopoda</t>
   </si>
   <si>
-    <t>Polyplacophora</t>
-  </si>
-  <si>
     <t>Tuberllaria</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Tunicata</t>
   </si>
   <si>
-    <t>Cirripedia</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -183,21 +174,9 @@
     <t>Polyp</t>
   </si>
   <si>
-    <t>Zoea</t>
-  </si>
-  <si>
-    <t>Megalopa</t>
-  </si>
-  <si>
-    <t>Decapod larvae</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Arm and disc</t>
-  </si>
-  <si>
     <t>Stalk</t>
   </si>
   <si>
@@ -207,10 +186,13 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">Although all bryozoans are colonial, solitary specimen can occur due to sample processing </t>
-  </si>
-  <si>
     <t>Scleractinia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although all bryozoans are colonial, solitary specimen might occur due to sample processing </t>
+  </si>
+  <si>
+    <t>Both arms and discs were assumed to be cylindrical</t>
   </si>
 </sst>
 </file>
@@ -227,18 +209,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -253,15 +229,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -578,11 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A16F556-E119-4982-881B-A688E7832F41}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -598,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -610,38 +583,38 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -652,7 +625,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -663,7 +636,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -674,537 +647,472 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>40</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.53</v>
+      </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.53</v>
+      </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2">
-        <v>0.53</v>
+        <v>0.23</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2">
-        <v>0.4</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2">
-        <v>0.45</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2">
-        <v>0.38500000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>31</v>
+      <c r="C42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>28</v>
+      <c r="A43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.61399999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E46" xr:uid="{692F673C-CC0A-460A-BBB0-D2FE6EE5CA26}"/>
-  <sortState ref="A1:F46">
+  <autoFilter ref="A1:E41" xr:uid="{692F673C-CC0A-460A-BBB0-D2FE6EE5CA26}"/>
+  <sortState ref="A1:F41">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
